--- a/output/1Y_P56_1VAL-D.xlsx
+++ b/output/1Y_P56_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>16.1934</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>617.5355</v>
       </c>
-      <c r="G2" s="1">
-        <v>617.5355</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.127</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.1934</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.127</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>15.2218</v>
       </c>
+      <c r="E3" s="1">
+        <v>617.5355</v>
+      </c>
       <c r="F3" s="1">
         <v>656.9525</v>
       </c>
-      <c r="G3" s="1">
-        <v>1274.4881</v>
-      </c>
       <c r="H3" s="1">
-        <v>19299.4454</v>
+        <v>9351.278899999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.6926</v>
+        <v>9351.278899999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.1934</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19299.4454</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0325</v>
+        <v>-0.0649</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>14.0702</v>
       </c>
+      <c r="E4" s="1">
+        <v>1274.4881</v>
+      </c>
       <c r="F4" s="1">
         <v>710.722</v>
       </c>
-      <c r="G4" s="1">
-        <v>1985.21</v>
-      </c>
       <c r="H4" s="1">
-        <v>27787.5802</v>
+        <v>17839.3918</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.1118</v>
+        <v>17839.3918</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.6926</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>27787.5802</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0516</v>
+        <v>-0.0781</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>13.8476</v>
       </c>
+      <c r="E5" s="1">
+        <v>1985.21</v>
+      </c>
       <c r="F5" s="1">
         <v>722.1468</v>
       </c>
-      <c r="G5" s="1">
-        <v>2707.3568</v>
-      </c>
       <c r="H5" s="1">
-        <v>37296.006</v>
+        <v>27347.8562</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.7746</v>
+        <v>27347.8562</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.1118</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>37296.006</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.013</v>
+        <v>-0.0177</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>14.6185</v>
       </c>
+      <c r="E6" s="1">
+        <v>2707.3568</v>
+      </c>
       <c r="F6" s="1">
         <v>684.0647</v>
       </c>
-      <c r="G6" s="1">
-        <v>3391.4215</v>
-      </c>
       <c r="H6" s="1">
-        <v>49320.4259</v>
+        <v>39372.278</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.7431</v>
+        <v>39372.278</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.7746</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49320.4259</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0428</v>
+        <v>0.0542</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>15.2363</v>
       </c>
+      <c r="E7" s="1">
+        <v>3391.4215</v>
+      </c>
       <c r="F7" s="1">
         <v>656.3273</v>
       </c>
-      <c r="G7" s="1">
-        <v>4047.7489</v>
-      </c>
       <c r="H7" s="1">
-        <v>61352.9437</v>
+        <v>51404.7936</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14.8231</v>
+        <v>51404.7936</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.7431</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61352.9437</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0343</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>15.9097</v>
       </c>
+      <c r="E8" s="1">
+        <v>4047.7489</v>
+      </c>
       <c r="F8" s="1">
         <v>628.5474</v>
       </c>
-      <c r="G8" s="1">
-        <v>4676.2962</v>
-      </c>
       <c r="H8" s="1">
-        <v>74012.6755</v>
+        <v>64064.5306</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14.9691</v>
+        <v>64064.5306</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.8231</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74012.6755</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0373</v>
+        <v>0.0433</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>15.3909</v>
       </c>
+      <c r="E9" s="1">
+        <v>4676.2962</v>
+      </c>
       <c r="F9" s="1">
         <v>649.7346</v>
       </c>
-      <c r="G9" s="1">
-        <v>5326.0308</v>
-      </c>
       <c r="H9" s="1">
-        <v>81547.39019999999</v>
+        <v>71599.239</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.0206</v>
+        <v>71599.239</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.9691</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81547.39019999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0293</v>
+        <v>-0.0333</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>16.1095</v>
       </c>
+      <c r="E10" s="1">
+        <v>5326.0308</v>
+      </c>
       <c r="F10" s="1">
         <v>620.7517</v>
       </c>
-      <c r="G10" s="1">
-        <v>5946.7825</v>
-      </c>
       <c r="H10" s="1">
-        <v>95303.13679999999</v>
+        <v>85354.9696</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.1342</v>
+        <v>85354.9696</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.0206</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>95303.13679999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.041</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>16.1222</v>
       </c>
+      <c r="E11" s="1">
+        <v>5946.7825</v>
+      </c>
       <c r="F11" s="1">
         <v>620.2627</v>
       </c>
-      <c r="G11" s="1">
-        <v>6567.0453</v>
-      </c>
       <c r="H11" s="1">
-        <v>105326.2123</v>
+        <v>95378.06630000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.2275</v>
+        <v>95378.06630000001</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>15.1342</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.2</v>
       </c>
-      <c r="L11" s="1">
-        <v>1070.4209</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-8929.579100000001</v>
+        <v>958.6855</v>
       </c>
       <c r="O11" s="1">
-        <v>1070.4209</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>106396.6332</v>
+        <v>-9041.3145</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0104</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.3453</v>
       </c>
+      <c r="E12" s="1">
+        <v>6567.0453</v>
+      </c>
       <c r="F12" s="1">
-        <v>607.3813</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7174.4265</v>
+        <v>604.1604</v>
       </c>
       <c r="H12" s="1">
-        <v>123796.8824</v>
+        <v>113316.3363</v>
       </c>
       <c r="I12" s="1">
-        <v>110535.2104</v>
+        <v>958.6855</v>
       </c>
       <c r="J12" s="1">
-        <v>15.4068</v>
+        <v>114275.0219</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100479.3428</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.3005</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10535.2104</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>535.2104</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>124332.0929</v>
+        <v>-10479.3428</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0682</v>
+        <v>0.0844</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.8769</v>
       </c>
+      <c r="E13" s="1">
+        <v>7171.2056</v>
+      </c>
       <c r="F13" s="1">
-        <v>589.3198</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7763.7463</v>
+        <v>586.1946</v>
       </c>
       <c r="H13" s="1">
-        <v>138072.0171</v>
+        <v>127534.1553</v>
       </c>
       <c r="I13" s="1">
-        <v>121070.4209</v>
+        <v>479.3428</v>
       </c>
       <c r="J13" s="1">
-        <v>15.5943</v>
+        <v>128013.4981</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110958.6855</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.4728</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10535.2104</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>138072.0171</v>
+        <v>-10479.3428</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0278</v>
+        <v>0.0301</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.8772</v>
       </c>
+      <c r="E14" s="1">
+        <v>7757.4003</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7763.7463</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-7171.2056</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>137961.4851</v>
       </c>
       <c r="I14" s="1">
-        <v>121070.4209</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.5943</v>
+        <v>137961.4851</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110958.6855</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.3036</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>138074.3462</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>138074.3462</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>138074.3462</v>
+        <v>127536.3067</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0675</v>
+        <v>-0.0004</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>16.1934</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>617.5355</v>
       </c>
       <c r="G2" s="1">
-        <v>617.5355</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.127</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.1934</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.127</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>15.2218</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>617.5355</v>
       </c>
       <c r="F3" s="1">
         <v>656.9525</v>
       </c>
       <c r="G3" s="1">
-        <v>1274.4881</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19299.4454</v>
+        <v>9351.278899999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.6926</v>
+        <v>9351.278899999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.1934</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19299.4454</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0325</v>
+        <v>-0.0649</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>14.0702</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1274.4881</v>
       </c>
       <c r="F4" s="1">
         <v>710.722</v>
       </c>
       <c r="G4" s="1">
-        <v>1985.21</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>27787.5802</v>
+        <v>17839.3918</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.1118</v>
+        <v>17839.3918</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.6926</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>27787.5802</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0516</v>
+        <v>-0.0781</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>13.8476</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1985.21</v>
       </c>
       <c r="F5" s="1">
         <v>722.1468</v>
       </c>
       <c r="G5" s="1">
-        <v>2707.3568</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>37296.006</v>
+        <v>27347.8562</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.7746</v>
+        <v>27347.8562</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.1118</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>37296.006</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.013</v>
+        <v>-0.0177</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>14.6185</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2707.3568</v>
       </c>
       <c r="F6" s="1">
         <v>684.0647</v>
       </c>
       <c r="G6" s="1">
-        <v>3391.4215</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>49320.4259</v>
+        <v>39372.278</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.7431</v>
+        <v>39372.278</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.7746</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49320.4259</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0428</v>
+        <v>0.0542</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>15.2363</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3391.4215</v>
       </c>
       <c r="F7" s="1">
         <v>567.0671</v>
       </c>
       <c r="G7" s="1">
-        <v>3958.4886</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>51404.7936</v>
       </c>
       <c r="I7" s="1">
-        <v>58640.0048</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14.8137</v>
+        <v>51404.7936</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48640.0048</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.3421</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8640.004800000001</v>
       </c>
-      <c r="O7" s="1">
-        <v>1359.9952</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61359.9952</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0344</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>15.9097</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3958.4886</v>
       </c>
       <c r="F8" s="1">
         <v>464.2772</v>
       </c>
       <c r="G8" s="1">
-        <v>4422.7659</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>62651.7915</v>
       </c>
       <c r="I8" s="1">
-        <v>66026.51609999999</v>
+        <v>1359.9952</v>
       </c>
       <c r="J8" s="1">
-        <v>14.9288</v>
+        <v>64011.7868</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>56026.5161</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.1535</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7386.5113</v>
       </c>
-      <c r="O8" s="1">
-        <v>3973.4839</v>
-      </c>
-      <c r="P8" s="1">
-        <v>73973.48390000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0366</v>
+        <v>0.0425</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>15.3909</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4422.7659</v>
       </c>
       <c r="F9" s="1">
         <v>802.2016</v>
       </c>
       <c r="G9" s="1">
-        <v>5224.9675</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>67717.4105</v>
       </c>
       <c r="I9" s="1">
-        <v>78373.12119999999</v>
+        <v>3973.4839</v>
       </c>
       <c r="J9" s="1">
-        <v>14.9997</v>
+        <v>71690.89449999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68373.12119999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.4594</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-12346.6052</v>
       </c>
-      <c r="O9" s="1">
-        <v>1626.8788</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81626.87880000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0279</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>16.1095</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5224.9675</v>
       </c>
       <c r="F10" s="1">
         <v>390.9067</v>
       </c>
       <c r="G10" s="1">
-        <v>5615.8742</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>83735.3293</v>
       </c>
       <c r="I10" s="1">
-        <v>84670.4327</v>
+        <v>1626.8788</v>
       </c>
       <c r="J10" s="1">
-        <v>15.077</v>
+        <v>85362.208</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>74670.4327</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.2911</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-6297.3114</v>
       </c>
-      <c r="O10" s="1">
-        <v>5329.5673</v>
-      </c>
-      <c r="P10" s="1">
-        <v>95329.5673</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0404</v>
+        <v>0.0449</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>16.1222</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5615.8742</v>
       </c>
       <c r="F11" s="1">
         <v>619.0839999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>6234.9582</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>90070.75999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>94651.4281</v>
+        <v>5329.5673</v>
       </c>
       <c r="J11" s="1">
-        <v>15.1808</v>
+        <v>95400.3273</v>
       </c>
       <c r="K11" s="1">
+        <v>84651.4281</v>
+      </c>
+      <c r="L11" s="1">
+        <v>15.0736</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.2</v>
       </c>
-      <c r="L11" s="1">
-        <v>1010.8574</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-8970.138000000001</v>
+        <v>940.4942</v>
       </c>
       <c r="O11" s="1">
-        <v>6359.4293</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>106359.4293</v>
+        <v>-9040.5013</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0098</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.3453</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>6234.9582</v>
       </c>
       <c r="F12" s="1">
         <v>139.8948</v>
       </c>
       <c r="G12" s="1">
-        <v>6374.8529</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>107586.0736</v>
       </c>
       <c r="I12" s="1">
-        <v>97077.94500000001</v>
+        <v>6289.0661</v>
       </c>
       <c r="J12" s="1">
-        <v>15.2283</v>
+        <v>113875.1397</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>87077.94500000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.9661</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-2426.5169</v>
       </c>
-      <c r="O12" s="1">
-        <v>13932.9123</v>
-      </c>
-      <c r="P12" s="1">
-        <v>123932.9123</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.06510000000000001</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.8769</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6374.8529</v>
       </c>
       <c r="F13" s="1">
         <v>372.7095</v>
       </c>
       <c r="G13" s="1">
-        <v>6747.5624</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>113371.6597</v>
       </c>
       <c r="I13" s="1">
-        <v>103740.8355</v>
+        <v>13862.5491</v>
       </c>
       <c r="J13" s="1">
-        <v>15.3746</v>
+        <v>127234.2089</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>93740.8355</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.7048</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6662.8904</v>
       </c>
-      <c r="O13" s="1">
-        <v>17270.0219</v>
-      </c>
-      <c r="P13" s="1">
-        <v>137270.0219</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0249</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.8772</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6747.5624</v>
       </c>
       <c r="F14" s="1">
         <v>-6747.5624</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>120002.0243</v>
       </c>
       <c r="I14" s="1">
-        <v>103740.8355</v>
+        <v>17199.6587</v>
       </c>
       <c r="J14" s="1">
-        <v>15.3746</v>
+        <v>137201.683</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>93740.8355</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.8925</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>120002.0243</v>
       </c>
-      <c r="O14" s="1">
-        <v>137272.0462</v>
-      </c>
-      <c r="P14" s="1">
-        <v>137272.0462</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0679</v>
+        <v>-0.0002</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>16.1934</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>617.5355</v>
       </c>
       <c r="G2" s="1">
-        <v>617.5355</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.127</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.1934</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.127</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>15.2218</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>617.5355</v>
       </c>
       <c r="F3" s="1">
         <v>656.9525</v>
       </c>
       <c r="G3" s="1">
-        <v>1274.4881</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19299.4454</v>
+        <v>9351.278899999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.6926</v>
+        <v>9351.278899999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.1934</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19299.4454</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0325</v>
+        <v>-0.0649</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>14.0702</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1274.4881</v>
       </c>
       <c r="F4" s="1">
         <v>710.722</v>
       </c>
       <c r="G4" s="1">
-        <v>1985.21</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>27787.5802</v>
+        <v>17839.3918</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.1118</v>
+        <v>17839.3918</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.6926</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>27787.5802</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0516</v>
+        <v>-0.0781</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>13.8476</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1985.21</v>
       </c>
       <c r="F5" s="1">
         <v>722.1468</v>
       </c>
       <c r="G5" s="1">
-        <v>2707.3568</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>37296.006</v>
+        <v>27347.8562</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.7746</v>
+        <v>27347.8562</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.1118</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>37296.006</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.013</v>
+        <v>-0.0177</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>14.6185</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2707.3568</v>
       </c>
       <c r="F6" s="1">
         <v>684.0647</v>
       </c>
       <c r="G6" s="1">
-        <v>3391.4215</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>49320.4259</v>
+        <v>39372.278</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.7431</v>
+        <v>39372.278</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.7746</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49320.4259</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0428</v>
+        <v>0.0542</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>15.2363</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3391.4215</v>
       </c>
       <c r="F7" s="1">
         <v>616.8792999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>4008.3009</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>51404.7936</v>
       </c>
       <c r="I7" s="1">
-        <v>59398.9587</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14.819</v>
+        <v>51404.7936</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49398.9587</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.5659</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9398.958699999999</v>
       </c>
-      <c r="O7" s="1">
-        <v>601.0413</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61356.0601</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0343</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>15.9097</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>4008.3009</v>
       </c>
       <c r="F8" s="1">
         <v>481.3621</v>
       </c>
       <c r="G8" s="1">
-        <v>4489.663</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>63440.1795</v>
       </c>
       <c r="I8" s="1">
-        <v>67057.28539999999</v>
+        <v>601.0413</v>
       </c>
       <c r="J8" s="1">
-        <v>14.9359</v>
+        <v>64041.2208</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57057.2854</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.2348</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7658.3267</v>
       </c>
-      <c r="O8" s="1">
-        <v>2942.7146</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74001.5085</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0371</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>15.3909</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4489.663</v>
       </c>
       <c r="F9" s="1">
         <v>827.6616</v>
       </c>
       <c r="G9" s="1">
-        <v>5317.3245</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>68741.67879999999</v>
       </c>
       <c r="I9" s="1">
-        <v>79795.7418</v>
+        <v>2942.7146</v>
       </c>
       <c r="J9" s="1">
-        <v>15.0067</v>
+        <v>71684.3934</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69795.7418</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.5459</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-12738.4564</v>
       </c>
-      <c r="O9" s="1">
-        <v>204.2582</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81618.34600000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0284</v>
+        <v>-0.0318</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>16.1095</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5317.3245</v>
       </c>
       <c r="F10" s="1">
         <v>412.1874</v>
       </c>
       <c r="G10" s="1">
-        <v>5729.5119</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>85215.44319999999</v>
       </c>
       <c r="I10" s="1">
-        <v>86435.8746</v>
+        <v>204.2582</v>
       </c>
       <c r="J10" s="1">
-        <v>15.0861</v>
+        <v>85419.7013</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>76435.8746</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.3749</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-6640.1328</v>
       </c>
-      <c r="O10" s="1">
-        <v>3564.1254</v>
-      </c>
-      <c r="P10" s="1">
-        <v>95385.2837</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0411</v>
+        <v>0.0457</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>16.1222</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5729.5119</v>
       </c>
       <c r="F11" s="1">
         <v>647.6197</v>
       </c>
       <c r="G11" s="1">
-        <v>6377.1317</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>91893.3501</v>
       </c>
       <c r="I11" s="1">
-        <v>96876.9296</v>
+        <v>3564.1254</v>
       </c>
       <c r="J11" s="1">
-        <v>15.1913</v>
+        <v>95457.4755</v>
       </c>
       <c r="K11" s="1">
+        <v>86876.9296</v>
+      </c>
+      <c r="L11" s="1">
+        <v>15.1631</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.2</v>
       </c>
-      <c r="L11" s="1">
-        <v>1031.3121</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-9409.7428</v>
+        <v>957.1184</v>
       </c>
       <c r="O11" s="1">
-        <v>4154.3826</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>106434.6467</v>
+        <v>-9483.9365</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.01</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.3453</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6377.1317</v>
       </c>
       <c r="F12" s="1">
         <v>159.5072</v>
       </c>
       <c r="G12" s="1">
-        <v>6536.6389</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>110039.3202</v>
       </c>
       <c r="I12" s="1">
-        <v>99643.63039999999</v>
+        <v>4080.1889</v>
       </c>
       <c r="J12" s="1">
-        <v>15.2439</v>
+        <v>114119.509</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>89643.63039999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.057</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-2766.7009</v>
       </c>
-      <c r="O12" s="1">
-        <v>11387.6817</v>
-      </c>
-      <c r="P12" s="1">
-        <v>124179.3471</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0665</v>
+        <v>0.08210000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.8769</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6536.6389</v>
       </c>
       <c r="F13" s="1">
         <v>399.6092</v>
       </c>
       <c r="G13" s="1">
-        <v>6936.2481</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>116248.8937</v>
       </c>
       <c r="I13" s="1">
-        <v>106787.4042</v>
+        <v>11313.488</v>
       </c>
       <c r="J13" s="1">
-        <v>15.3956</v>
+        <v>127562.3817</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>96787.4042</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.8069</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-7143.7738</v>
       </c>
-      <c r="O13" s="1">
-        <v>14243.9079</v>
-      </c>
-      <c r="P13" s="1">
-        <v>137599.5317</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0255</v>
+        <v>0.0277</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.8772</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6936.2481</v>
       </c>
       <c r="F14" s="1">
         <v>-6936.2481</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123357.7046</v>
       </c>
       <c r="I14" s="1">
-        <v>106787.4042</v>
+        <v>14169.7142</v>
       </c>
       <c r="J14" s="1">
-        <v>15.3956</v>
+        <v>137527.4188</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>96787.4042</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.9539</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>123357.7046</v>
       </c>
-      <c r="O14" s="1">
-        <v>137601.6125</v>
-      </c>
-      <c r="P14" s="1">
-        <v>137601.6125</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0677</v>
+        <v>-0.0003</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>16.1934</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>617.5355</v>
       </c>
       <c r="G2" s="1">
-        <v>617.5355</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.127</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.1934</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.127</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>15.2218</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>617.5355</v>
       </c>
       <c r="F3" s="1">
         <v>656.9525</v>
       </c>
       <c r="G3" s="1">
-        <v>1274.4881</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19299.4454</v>
+        <v>9351.278899999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.6926</v>
+        <v>9351.278899999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.1934</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19299.4454</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0325</v>
+        <v>-0.0649</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>14.0702</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1274.4881</v>
       </c>
       <c r="F4" s="1">
         <v>710.722</v>
       </c>
       <c r="G4" s="1">
-        <v>1985.21</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>27787.5802</v>
+        <v>17839.3918</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.1118</v>
+        <v>17839.3918</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.6926</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>27787.5802</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0516</v>
+        <v>-0.0781</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>13.8476</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1985.21</v>
       </c>
       <c r="F5" s="1">
         <v>722.1468</v>
       </c>
       <c r="G5" s="1">
-        <v>2707.3568</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>37296.006</v>
+        <v>27347.8562</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.7746</v>
+        <v>27347.8562</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.1118</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>37296.006</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.013</v>
+        <v>-0.0177</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>14.6185</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2707.3568</v>
       </c>
       <c r="F6" s="1">
         <v>684.0647</v>
       </c>
       <c r="G6" s="1">
-        <v>3391.4215</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>49320.4259</v>
+        <v>39372.278</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.7431</v>
+        <v>39372.278</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.7746</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49320.4259</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0428</v>
+        <v>0.0542</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>15.2363</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3391.4215</v>
       </c>
       <c r="F7" s="1">
         <v>656.3273</v>
       </c>
       <c r="G7" s="1">
-        <v>4047.7489</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61352.9437</v>
+        <v>51404.7936</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14.8231</v>
+        <v>51404.7936</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.7431</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61352.9437</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0343</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>15.9097</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4047.7489</v>
       </c>
       <c r="F8" s="1">
         <v>509.9336</v>
       </c>
       <c r="G8" s="1">
-        <v>4557.6825</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>64064.5306</v>
       </c>
       <c r="I8" s="1">
-        <v>68112.891</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14.9446</v>
+        <v>64064.5306</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58112.891</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.3568</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8112.891</v>
       </c>
-      <c r="O8" s="1">
-        <v>1887.109</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74022.4611</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0374</v>
+        <v>0.0433</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>15.3909</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4557.6825</v>
       </c>
       <c r="F9" s="1">
         <v>772.3466</v>
       </c>
       <c r="G9" s="1">
-        <v>5330.0291</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>81608.6079</v>
+        <v>69783.13219999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>1887.109</v>
       </c>
       <c r="J9" s="1">
-        <v>15.0093</v>
+        <v>71670.2412</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.3587</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-11887.109</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81608.6079</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0287</v>
+        <v>-0.0323</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>16.1095</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5330.0291</v>
       </c>
       <c r="F10" s="1">
         <v>515.801</v>
       </c>
       <c r="G10" s="1">
-        <v>5845.8301</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>85419.0457</v>
       </c>
       <c r="I10" s="1">
-        <v>88309.29640000001</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.1064</v>
+        <v>85419.0457</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78309.29640000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.6921</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-8309.296399999999</v>
       </c>
-      <c r="O10" s="1">
-        <v>1690.7036</v>
-      </c>
-      <c r="P10" s="1">
-        <v>95375.97629999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0411</v>
+        <v>0.0459</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>16.1222</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5845.8301</v>
       </c>
       <c r="F11" s="1">
         <v>677.3157</v>
       </c>
       <c r="G11" s="1">
-        <v>6523.1457</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>93758.9301</v>
       </c>
       <c r="I11" s="1">
-        <v>99229.1152</v>
+        <v>1690.7036</v>
       </c>
       <c r="J11" s="1">
-        <v>15.2119</v>
+        <v>95449.6338</v>
       </c>
       <c r="K11" s="1">
+        <v>89229.1152</v>
+      </c>
+      <c r="L11" s="1">
+        <v>15.2637</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.2</v>
       </c>
-      <c r="L11" s="1">
-        <v>1052.2494</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-9867.5694</v>
+        <v>959.4052</v>
       </c>
       <c r="O11" s="1">
-        <v>1823.1342</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>106445.2596</v>
+        <v>-9960.4136</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0101</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.3453</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6523.1457</v>
       </c>
       <c r="F12" s="1">
         <v>180.2061</v>
       </c>
       <c r="G12" s="1">
-        <v>6703.3518</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>112558.8368</v>
       </c>
       <c r="I12" s="1">
-        <v>102354.8436</v>
+        <v>1730.29</v>
       </c>
       <c r="J12" s="1">
-        <v>15.2692</v>
+        <v>114289.1269</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>92354.84359999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.158</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-3125.7284</v>
       </c>
-      <c r="O12" s="1">
-        <v>8697.4058</v>
-      </c>
-      <c r="P12" s="1">
-        <v>124365.7525</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.068</v>
+        <v>0.0838</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.8769</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6703.3518</v>
       </c>
       <c r="F13" s="1">
         <v>427.9799</v>
       </c>
       <c r="G13" s="1">
-        <v>7131.3318</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>119213.7494</v>
       </c>
       <c r="I13" s="1">
-        <v>110005.798</v>
+        <v>8604.5617</v>
       </c>
       <c r="J13" s="1">
-        <v>15.4257</v>
+        <v>127818.3111</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>100005.798</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.9188</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-7650.9544</v>
       </c>
-      <c r="O13" s="1">
-        <v>11046.4514</v>
-      </c>
-      <c r="P13" s="1">
-        <v>137871.4815</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0261</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>17.8772</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7131.3318</v>
       </c>
       <c r="F14" s="1">
         <v>-7131.3318</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>126827.1695</v>
       </c>
       <c r="I14" s="1">
-        <v>110005.798</v>
+        <v>10953.6072</v>
       </c>
       <c r="J14" s="1">
-        <v>15.4257</v>
+        <v>137780.7768</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>100005.798</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.0234</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>126827.1695</v>
       </c>
-      <c r="O14" s="1">
-        <v>137873.6209</v>
-      </c>
-      <c r="P14" s="1">
-        <v>137873.6209</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.06759999999999999</v>
+        <v>-0.0003</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>16.1934</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>617.5355</v>
       </c>
       <c r="G2" s="1">
-        <v>617.5355</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.127</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.1934</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.127</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>15.2218</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>617.5355</v>
       </c>
       <c r="F3" s="1">
         <v>656.9525</v>
       </c>
       <c r="G3" s="1">
-        <v>1274.4881</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19299.4454</v>
+        <v>9351.278899999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.6926</v>
+        <v>9351.278899999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.1934</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19299.4454</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0325</v>
+        <v>-0.0649</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>14.0702</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1274.4881</v>
       </c>
       <c r="F4" s="1">
         <v>710.722</v>
       </c>
       <c r="G4" s="1">
-        <v>1985.21</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>27787.5802</v>
+        <v>17839.3918</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.1118</v>
+        <v>17839.3918</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.6926</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>27787.5802</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0516</v>
+        <v>-0.0781</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>13.8476</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1985.21</v>
       </c>
       <c r="F5" s="1">
         <v>722.1468</v>
       </c>
       <c r="G5" s="1">
-        <v>2707.3568</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>37296.006</v>
+        <v>27347.8562</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.7746</v>
+        <v>27347.8562</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.1118</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>37296.006</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.013</v>
+        <v>-0.0177</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>14.6185</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2707.3568</v>
       </c>
       <c r="F6" s="1">
         <v>684.0647</v>
       </c>
       <c r="G6" s="1">
-        <v>3391.4215</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>49320.4259</v>
+        <v>39372.278</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.7431</v>
+        <v>39372.278</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.7746</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49320.4259</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0428</v>
+        <v>0.0542</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>15.2363</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3391.4215</v>
       </c>
       <c r="F7" s="1">
         <v>656.3273</v>
       </c>
       <c r="G7" s="1">
-        <v>4047.7489</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>61352.9437</v>
+        <v>51404.7936</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14.8231</v>
+        <v>51404.7936</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.7431</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61352.9437</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0343</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>15.9097</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4047.7489</v>
       </c>
       <c r="F8" s="1">
         <v>579.0924</v>
       </c>
       <c r="G8" s="1">
-        <v>4626.8413</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>64064.5306</v>
       </c>
       <c r="I8" s="1">
-        <v>69213.18640000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14.9591</v>
+        <v>64064.5306</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59213.1864</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.6287</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9213.186400000001</v>
       </c>
-      <c r="O8" s="1">
-        <v>786.8136</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74016.7555</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0373</v>
+        <v>0.0433</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>15.3909</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4626.8413</v>
       </c>
       <c r="F9" s="1">
         <v>700.8566</v>
       </c>
       <c r="G9" s="1">
-        <v>5327.6978</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>81572.91439999999</v>
+        <v>70842.0292</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>786.8136</v>
       </c>
       <c r="J9" s="1">
-        <v>15.0159</v>
+        <v>71628.8428</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.1291</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10786.8136</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81572.91439999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0291</v>
+        <v>-0.0329</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>16.1095</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5327.6978</v>
       </c>
       <c r="F10" s="1">
         <v>620.7517</v>
       </c>
       <c r="G10" s="1">
-        <v>5948.4496</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95329.85279999999</v>
+        <v>85381.6856</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.13</v>
+        <v>85381.6856</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.0159</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>95329.85279999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.041</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>16.1222</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5948.4496</v>
       </c>
       <c r="F11" s="1">
         <v>620.2627</v>
       </c>
       <c r="G11" s="1">
-        <v>6568.7123</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>105352.9493</v>
+        <v>95404.8033</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.2237</v>
+        <v>95404.8033</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>15.13</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.2</v>
       </c>
-      <c r="L11" s="1">
-        <v>1070.7209</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-8929.2791</v>
+        <v>958.9856</v>
       </c>
       <c r="O11" s="1">
-        <v>1070.7209</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>106423.6702</v>
+        <v>-9041.0144</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0104</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.3453</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6568.7123</v>
       </c>
       <c r="F12" s="1">
         <v>306.4289</v>
       </c>
       <c r="G12" s="1">
-        <v>6875.1413</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>113345.1016</v>
       </c>
       <c r="I12" s="1">
-        <v>105315.102</v>
+        <v>958.9856</v>
       </c>
       <c r="J12" s="1">
-        <v>15.3182</v>
+        <v>114304.0872</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>95315.102</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.5105</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-5315.102</v>
       </c>
-      <c r="O12" s="1">
-        <v>5755.619</v>
-      </c>
-      <c r="P12" s="1">
-        <v>124388.2439</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0684</v>
+        <v>0.0844</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.8769</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6875.1413</v>
       </c>
       <c r="F13" s="1">
         <v>457.8911</v>
       </c>
       <c r="G13" s="1">
-        <v>7333.0324</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>122268.8871</v>
       </c>
       <c r="I13" s="1">
-        <v>113500.7756</v>
+        <v>5643.8837</v>
       </c>
       <c r="J13" s="1">
-        <v>15.478</v>
+        <v>127912.7708</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>103500.7756</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.0543</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-8185.6737</v>
       </c>
-      <c r="O13" s="1">
-        <v>7569.9453</v>
-      </c>
-      <c r="P13" s="1">
-        <v>137982.0596</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0267</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>17.8772</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7333.0324</v>
       </c>
       <c r="F14" s="1">
         <v>-7333.0324</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>130414.3142</v>
       </c>
       <c r="I14" s="1">
-        <v>113500.7756</v>
+        <v>7458.21</v>
       </c>
       <c r="J14" s="1">
-        <v>15.478</v>
+        <v>137872.5242</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>103500.7756</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.1143</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>130414.3142</v>
       </c>
-      <c r="O14" s="1">
-        <v>137984.2595</v>
-      </c>
-      <c r="P14" s="1">
-        <v>137984.2595</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.06759999999999999</v>
+        <v>-0.0003</v>
       </c>
     </row>
   </sheetData>
@@ -4477,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.829</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.5943</v>
+        <v>14.3036</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3746</v>
+        <v>13.8925</v>
       </c>
       <c r="E3" s="1">
-        <v>15.3956</v>
+        <v>13.9539</v>
       </c>
       <c r="F3" s="1">
-        <v>15.4257</v>
+        <v>14.0234</v>
       </c>
       <c r="G3" s="1">
-        <v>15.478</v>
+        <v>14.1143</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.1121</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0678</v>
+        <v>0.1051</v>
       </c>
       <c r="D4" s="3">
-        <v>0.061</v>
+        <v>0.0984</v>
       </c>
       <c r="E4" s="3">
-        <v>0.064</v>
+        <v>0.1016</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0664</v>
+        <v>0.1039</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0672</v>
+        <v>0.1045</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1591</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1433</v>
+        <v>0.1657</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1411</v>
+        <v>0.1627</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1421</v>
+        <v>0.1639</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1429</v>
+        <v>0.165</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1432</v>
+        <v>0.1655</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.5767</v>
       </c>
       <c r="C6" s="4">
-        <v>0.3311</v>
+        <v>0.5118</v>
       </c>
       <c r="D6" s="4">
-        <v>0.2886</v>
+        <v>0.4803</v>
       </c>
       <c r="E6" s="4">
-        <v>0.3076</v>
+        <v>0.4957</v>
       </c>
       <c r="F6" s="4">
-        <v>0.3223</v>
+        <v>0.5064</v>
       </c>
       <c r="G6" s="4">
-        <v>0.3272</v>
+        <v>0.5088</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2899</v>
+        <v>0.1182</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2946</v>
+        <v>0.2933</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2953</v>
+        <v>0.2939</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2953</v>
+        <v>0.2936</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2933</v>
+        <v>0.2913</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1070.4209</v>
+        <v>958.6855</v>
       </c>
       <c r="D8" s="1">
-        <v>1010.8574</v>
+        <v>940.4942</v>
       </c>
       <c r="E8" s="1">
-        <v>1031.3121</v>
+        <v>957.1184</v>
       </c>
       <c r="F8" s="1">
-        <v>1052.2494</v>
+        <v>959.4052</v>
       </c>
       <c r="G8" s="1">
-        <v>1070.7209</v>
+        <v>958.9856</v>
       </c>
     </row>
   </sheetData>
